--- a/01Comparaciones3Bus_TS.xlsx
+++ b/01Comparaciones3Bus_TS.xlsx
@@ -8,6 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="D0_E0 G5" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="D0_E1 G1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="D0_E2 G2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="D0_E3 G3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="D0_E4 G4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -478,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.1137732488615572e-08</t>
+          <t>1.113773248861546e-08</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -515,12 +519,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>100.06832112255081</t>
+          <t>100.19461368386835</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>100.00000000000007</t>
+          <t>100.00000000000004</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -530,12 +534,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>78.71203407827777</t>
+          <t>78.73251935218275</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>78.70759449420231</t>
+          <t>78.7075944942023</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -552,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>41.999178844828464</t>
+          <t>41.999178844811844</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -567,12 +571,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>67.14066331428573</t>
+          <t>67.13287527270643</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>66.92378206588857</t>
+          <t>66.90758539059776</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -589,12 +593,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>100.60257769348513</t>
+          <t>100.62690017831964</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>100.59908641999615</t>
+          <t>100.61691667788986</t>
         </is>
       </c>
     </row>
@@ -606,12 +610,816 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>80.01214599147015</t>
+          <t>80.03459800269093</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>80.0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Gen</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>P_PF</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>P_Py</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Linea</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>P_PF</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>P_Py</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>FMax</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160.00000238427003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>173.69745843695992</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Line 1-2</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>-9.489973748271375</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>-9.897859168438586</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>20.000004932009833</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>14.365704979137218</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.000000001723992</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Line 1-3</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>9.426919070596014</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>9.828034206521982</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>100.0000260795754</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>46.26963044235181</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>41.90392546482079</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Line 2-3</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-86.93954435235698</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-91.04880898372294</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>100.0000260795754</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>100.36570497750898</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1.1036588066341056e-08</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Gen</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>P_PF</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>P_Py</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Linea</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>P_PF</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>P_Py</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>FMax</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160.00000390731034</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>203.8922010733481</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Line 1-2</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>31.699759173114373</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>19.100140901453475</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>20.000004932009833</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>18.63718349415771</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.000000001723992</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Line 1-3</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>59.29518273377714</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>45.45455730889739</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>100.0000260795754</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>50.54111221302437</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>41.90392546482079</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Line 2-3</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-32.88850820379026</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-55.32417447340981</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>100.0000260795754</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1.1111158566868882e-08</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>92.22644143869627</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>65.16379779681478</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Gen</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>P_PF</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>P_Py</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Linea</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>P_PF</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>P_Py</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>FMax</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>151.24468644201926</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>151.68935740393823</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Line 1-2</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>18.569070811946773</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>18.584527369743554</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>20.000004932009833</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10.00000000172511</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.000000001723992</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Line 1-3</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>44.84471026045661</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>44.82671430068484</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>100.0000260795754</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1.0999316209706484e-08</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Line 2-3</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-55.896817747555275</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-55.97959295211161</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>100.0000260795754</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>95.9999999999959</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>64.00000000055871</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>64.0000000005626</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Gen</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>P_PF</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>P_Py</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Linea</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>P_PF</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>P_Py</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>FMax</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>113.11896461216377</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>112.97844312035068</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Line 1-2</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>19.49957262816163</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>18.238718083028722</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>20.000004932009833</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1.1157651040819056e-08</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Line 1-3</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>43.909111114793696</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>45.173105026379915</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>100.0000260795754</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>41.90392546483047</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>41.90392546482079</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Line 2-3</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-60.48293529382901</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-59.17147058555737</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>100.0000260795754</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>95.99999999999034</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>64.00000000056674</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>64.0000000005626</t>
         </is>
       </c>
     </row>
